--- a/datamining/kor_abs_full.xlsx
+++ b/datamining/kor_abs_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Documents\GitHub\yooniverse\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1EA071-79B8-4B2C-AD41-3E11B0C0DE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8587C852-6BF7-4BC5-95C5-B7656DEAA016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5906" uniqueCount="4326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="4357">
   <si>
     <t>NO</t>
   </si>
@@ -13336,6 +13336,263 @@
   <si>
     <t>영문키워드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유치원 및 초등학교 1-2학년을 위한 AI 기반 교수학습활동 탐색</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유치원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저학년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초등학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소프트웨어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수학습활동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컴퓨팅사고력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI(Artificial intelligence)는 4차 산업혁명을 살고 있는 우리에게 많은 변화를 가져왔다. 무인카메라, 무인택배함 등 AI를 활용한 무인 자동시스템은 우리 삶에서 손쉽게 접할 수 있다. 따라서 미래를 살아가는 아이들에게 AI 교육은 중요한 부분을 차지하게 되었다. 그러나 현재 국내 교육은 유치원과 초등학교 저학년과 같은 어린 학생들을 위한 AI 교육 사례가 미비하다. 따라서 본 연구는 기 연구된 유치원 및 초등학교 1-2학년 SW 교육과정을 토대로 AI 기반 교수학습 활동 사례와 주제별로 AI 기반 컴퓨팅 사고력을 제시하였다. 다만, 본 교수학습 활동이 공교육에 적용되려면 충분한 수업 시간을 확보하고, 교육 환경을 개선하고, 수업활동을 적극적으로 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>AI교육의 필요성 분석에 따른 미래 방향 탐색</t>
+  </si>
+  <si>
+    <t>인공지능, 인공지능 교육, 필요성, 인식, 방향</t>
+  </si>
+  <si>
+    <t>최근 머신러닝, 빅데이터, 머신러닝 등의 기술 발전을 기반으로 인공지능(AI) 기술이 고도화되면서 다양한 분야에서 적극적으로 활용되고 있고, 미래 산업의 핵심으로 떠오르고 있다. 이에 우리나라에서는 AI 국가전략을 발표하는 등 미래 AI 기술 발전과 환경 구축의 발판을 마련하고 있으며, 교육 분야에서도 AI 인재 양성을 위한 각종 정책을 개발하고 있다. 그런데 AI의 중요성이나 필요성에 대해서는 많은 사람들이 동의하고 있으면서도, 구체적인 필요성에 대한 공감대 형성은 부족하다고 할 수 있다. 관련 연구를 살펴보면 AI교육의 내용이나 방법론 등의 방향에서 많은 차이를 보이고 있는데, 이는 필요성에 대한 인식이 방향을 설정하는 전제 조건이 되고, 이에 따라 교육 내용과 방법이 결정되기 때문이다. 이에 본 연구에서는 전문가와 학교 현장의 AI교육 필요성에 대한 인식 차이를 분석해보고 이를 토대로 모두가 공감할 수 있는 AI교육의 필요성에 대한 인식을 분석함으로써 향후 AI교육의 방향을 탐색하고자 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육대학원 AI교육과정 개발 탐색</t>
+  </si>
+  <si>
+    <t>교육대학원, 인공지능, 인공지능교육, 교육과정, 교육과정 개발</t>
+  </si>
+  <si>
+    <t>지능정보사회의 도래와 미래 인재 육성을 위한 인공지능 교육이 교육계의 주목을 받으며 교원의 인공지능 대학원 과정 또한 개설, 운영 중이며 올해 신설된 AI교육 대학원의 교육과정은 각 대학의 여건을 고려하여 자체적으로 편성되어있다. 이에 본 연구에서는 교육대학원에서 보다 효과적이고 교육적 가치를 높일 수 있는 AI교육과정이 향후 개발될 수 있도록 교육과정 개발의 방향을 탐색하고자 한다. 본 연구에서 제안한 교육대학원 AI교육과정은 Backward 설계를 토대로 Bloom의 디지털 텍사노미, Bruner의 나선형 교육과정 구성 원리를 포함하여 ‘내용영역’, ‘수준’, ‘교수학습방법’ 등 3가지의 요소로 구성하고자 하였다. 연구에서 제시한 AI교육과정 개발 방향을 토대로 국내 교육대학원의 AI교육과정이 좀 더 내실화되길 바라며, 향후 본 연구에서 제시한 교육과정을 수정․보완하여 초․중등학교의 AI교육과정 구성에도 활용할 수 있을 것이라 기대한다.</t>
+  </si>
+  <si>
+    <t>로봇 활용 인공지능 교육 프로그램 개발과 적용에 관한 연구</t>
+  </si>
+  <si>
+    <t>인공지능, 인공지능 로봇, 소프트웨어 교육, 언플러그드 교육, 계산적 사고</t>
+  </si>
+  <si>
+    <t>초등학교 소프트웨어 교육에서는 간단한 문제해결 과정을 통하여 프로그래밍 과정을 경험하고 있다. 그리고 이러한 경험조차도 문제 해결 과정을 CS Unplugged 활동으로 하도록 강조하는 실정이다. 하지만 CS Unplugged는 컴퓨팅 원리의 습득에 그치고 학습자가 실제 문제 해결의 처리 경험을 하지 못한다는 단점이 존재한다. 본 연구에서는 초등학생들의 실제적 삶에서 부딪히는 문제들을 해결할 수 있는 역량을 기르는 것에 목표를 두고 로봇 활용 인공지능 교육 프로그램을 개발하였다. 프로그램을 적용한 결과, 학생들은 개발된 프로그램을 통하여 실생활의 복잡한 문제를 인공지능의 관점으로 해결하고, 로봇 제어를 통하여 인공지능 교육에 대한 흥미 및 이해도가 높아질 수 있었다.</t>
+  </si>
+  <si>
+    <t>인공지능(AI) 교육 플랫폼을 활용한 SW교육 수업안 개발 : 초등학교 고학년을 중심으로</t>
+  </si>
+  <si>
+    <t>인공지능SW교육, 인공지능플랫폼, 인공지능프레임워크, 인공지능리터러시, 프로젝트 학습</t>
+  </si>
+  <si>
+    <t>인공지능(AI)이 발달하면서 누구나 손쉽게 접속하여 인공지능에 대한 내용을 학습하거나, 인공지능 모델을 만드는 등 인공지능 관련 다양한 활동을 할 수 있는 플랫폼들이 많이 생겨났다. 이에 본 연구에서는 다양한 인공지능 교육 플랫폼을 분석하여 인공지능 기반 SW교육 활성화를 위한 프레임워크기반 인공지능 교육 플랫폼을 활용한 SW교육 수업안을 개발하여 제안하였다. 인공지능 기반 SW교육 프레임워크는 컴퓨팅 사고력(Computational Thinking)의 기반 위에서 인공지능 리터러시(literacy)를 함양하는 것을 목표로 학습자 중심의 프로젝트 수업을 구성하여 실생활의 맥락이나 다른 교과와 융합 가능한 요소를 포함하였다. 이를 활용하여 분리수거 도우미 인공지능 만들기라는 주제로 6차시 분량의 프로젝트 기반 수업으로 실과, 사회, 창의적 체험활동을 활용한 SW교육 수업안을 개발하여 제시하였다. 이 프로젝트 수업은 AI Oceans, 엔트리와 같이 어렵지 않은 플랫폼을 활용하여 수업을 구성하였다.</t>
+  </si>
+  <si>
+    <t>빅데이터 기반의 AI기초교양교육이 학부생의 정의적 태도에 미치는 영향</t>
+  </si>
+  <si>
+    <t>AI교육, 빅데이터, 소프트웨어교육, AI, AI 태도</t>
+  </si>
+  <si>
+    <t>4차 산업혁명시대는 인공지능(AI), 가상현실(VR), 빅데이터(BigData)와 같은 첨단 기술을 통해 사회전반에 걸쳐 총체적 변화가 나타난다. 이를 반영하듯 많은 나라들이 기술혁명시대에 우위를 선점하기 위해 AI 인재양성에 힘을 기울이고 있다. 우리나라도 AI인재양성 전략을 내놓고는 있지만 학부생에게는 AI 교육에 대한 접근이 쉽지는 않다. 이러한 현실에서 본 논문은 학부생이 쉽게 접근할 수 있는 빅데이터 분석 기반 AI 교육을 실시하여 AI 교육에 대한 학부생의 정의적 태도 변화를 살펴보았다. 이를 위해 5주간(총 15시간)동안 데이터 분석 기반 AI 교육이 학부생들의 수준에 제공되었다. 그리고 단일 그룹의 사전-사후 검사를 통해 AI 교육에 대한 학부생들의 태도를 분석하였다. 분석 결과 AI 교육에 대한 자신감과 자기주도성이 향상되는 유의미한 결과를 얻었다. 이 연구의 결과를 토대로 현장에서 자기주도성과 자신감을 향상시킬 수 있는 AI기초교육개발에 대한 연구가 활발히 이루어지길 기대한다.</t>
+  </si>
+  <si>
+    <t>엔트리를 활용한 초등 데이터 과학 교육 사례 연구</t>
+  </si>
+  <si>
+    <t>인공지능, 데이터과학, 엔트리, 스몰데이터, 소프트웨어 교육</t>
+  </si>
+  <si>
+    <t>데이터과학은 스몰데이터 분석에서 출발하여, 빅데이터 분석을 위한 머신러닝, 딥러닝까지 포함하고 있다. 데이터과학은 인공지능 기술의 핵심 영역이고, 학교 교육과정에 체계적으로 반영해야 할 내용이다. 데이터과학 교육을 위해, 엔트리에서도 초등교육용 데이터 분석 도구를 제공하고 있다. 빅데이터 분석에서는 데이터 표본을 추출하여, 통계학적인 추측과 판단을 통해 분석결과를 해석한다. 본 논문에서는 통계학적인 지식을 필요로 하는 빅데이터 분석 영역을 초등영역에서 제외하기로 하고, 초등영역에 초점을 맞춘 데이터과학 교육 사례를 제안하였다. 이를 위해서, 일반적인 데이터과학 교육 단계를 먼저 설명하고, 초등 데이터과학 교육 단계를 새롭게 제안하였다. 그리고 엔트리에서 제공하는 공공 스몰 데이터를 사용한 데이터 변수 값 비교 사례와 데이터 변수 간 상관관계 분석 사례를 초등 데이터과학 교육 단계에 따라 제안하였다. 본 논문에서 제안된 엔트리 데이터분석 사례들을 활용하면, 여러 교과에서 발생하는 데이터를 사용한 초등 데이터과학 융합 교육이 가능하다. 또한, 엔트리를 사용하여 텍스트, 음성 및 영상인식 AI 도구와 결합한 데이터과학 교육 자료도 개발 가능하다.</t>
+  </si>
+  <si>
+    <t>초등 AI 교육 플랫폼에 대한 전문가 인식조사 연구</t>
+  </si>
+  <si>
+    <t>AI 교육, AI 교육 플랫폼, 전문가 인식조사, 엔트리, 머신러닝포키즈</t>
+  </si>
+  <si>
+    <t>4차 산업혁명이 도래함으로써 AI 교육에 대한 관심이 증가하고 있다. 미래를 이끌어갈 AI 역량을 갖춘 인재를 양성하기 위해서는 학교 현장에서 AI 교육이 내실 있게 이루어져야 한다. 국내·외에서 AI 교육을 시행하고 있지만, 더 나은 AI 교육을 시행하기 위해서는 AI 교육 플랫폼의 역할이 중요하다고 판단하였기에, 본 연구에서는 AI 교육 플랫폼에 대한 전문가 인식을 조사하였다. 교수·학습관리, 교육용 콘텐츠, 접근성, AI 교육 플랫폼의 성능, 초등학생의 수준 적합도 등의 5가지 기준을 바탕으로 인식조사를 시행하였다. 총 103명의 교육 관련 전문가들을 대상으로 실시하였으며, 조사 결과 Machine Learning for Kids, Teachable Machine, AI Oceans(code.org), 엔트리, 지니 블록, 앱인밴터, Elice, mBlock 등의 8가지 플랫폼 중 엔트리가 초등 AI 교육에 가장 적합한 플랫폼으로 선정되었다. 이는 엔트리가 양질의 교육용 콘텐츠를 제공하고, 접근성이 편리하며, 교수·학습 관리가 가능하고, 초등학생들의 수준에 적합한 AI 교육 플랫폼이기 때문인 것으로 분석된다. 다양한 AI 교육 플랫폼을 학교 현장에 적용하기 위해서 교사를 대상으로 AI 관련 연수를 실시하여 AI 교육 전문가로 양성해야 하며, 지속적으로 AI 교육 플랫폼을 접할 기회를 제공해야 할 것이다. 본 연구는 조사대상 인원이 제한적이었고, 대부분의 인식조사 참여자가 경기도에서 근무하는 전문가라서 모집단 인식조사라고 하기 에는 제한점이 존재한다. 향후 이와 같은 제한점을 보완하기 위한 전국단위의 전문가를 대상한 연구가 진행되어야 할 것으로 판단된다.</t>
+  </si>
+  <si>
+    <t>인공지능 스토리텔링(AI+ST) 학습 효과에 관한 사례연구</t>
+  </si>
+  <si>
+    <t>알고리즘, 인공지능, AI스토리텔링학습법, 안타고니즘, 문제해결형학습법</t>
+  </si>
+  <si>
+    <t>본 연구는 인공지능(이하 AI)이 모든 영역에 전일적으로 확산되는 시점을 맞아 비전공자들도 AI를 효과적으로 학습하는 방안을 탐색하기 위한 하나의 시론적 연구이다. AI 교육을 수학, 통계, 컴퓨터공학 전공 학생들뿐만 아니라 인문·사회과학 등 다른 전공자들도 쉽게 접근할 수 있도록 하기 위한 학습법을 탐색하고자 하였다. 마침 ‘설명 가능한 AI(XAI: eXplainable AI)’의 필요성과 MIT AI 연구소의 Patrick Winston의 ‘지각 있는 기계(AI)를 위한 스토리텔링의 중요성[33]'이 두드러진 상황에서 AI 스토리텔링 학습모델 연구의 의의를 찾을 수 있겠다. 이를 위해 본 연구는 우선 대구 소재 A 대학교의 학생들을 대상으로 그 가능성을 테스트하였다. 먼저 AI 스토리텔링(AI+ST) 학습법[30]의 교육목표, AI 교육내용의 체계와 학습방법론, 새로운 AI 도구의 소개 및 활용에 대해 살펴보고, 1) AI+ST 학습법이 알고리즘 중심의 학습법을 보완할 수 있는지, 2) AI+ST 학습법이 학생들에게도 효과가 있는지, 그리하여 AI 이해력, 흥미도, 응용력 배양에 도움이 되었는지에 관한 연구 질문을 중심으로 학습자들의 결과물을 비교 분석하였다.</t>
+  </si>
+  <si>
+    <t>SW교육 학습자 중심 평가 사례 분석을 통한 인공지능교육의 평가 방향 고찰</t>
+  </si>
+  <si>
+    <t>인공지능 교육, 소프트웨어 교육, 학습자 중심 평가 모형, 온라인 수업, 디지털 학습 환경</t>
+  </si>
+  <si>
+    <t>4차 산업혁명과 코로나-19를 대비하면서 우리 교육은 소프트웨어 교육을 넘어 소프트웨어 기술을 접목한 AI 교육의 시대로 새로운 배움의 장을 넓혀가고 있다. 본 연구에서는 소프트웨어 교육에서의 학습자 중심 평가 사 례를 분석하여 그 효과성을 통해 인공지능 교육의 평가 방향을 고찰해 보려 한다. 컴퓨터 교과를 포함한 비컴퓨터 교과에 학습자 중심 평가를 적용한 사례를 통해 학습자의 학습에 미치는 효과와 학습자 중심 평가의 환경 여건 및 평가 모형 등을 모색하고, 소프트웨어 교육에 학습자 중심 평가 모형을 적용한 사례를 통해 인공지능 교육에서 학습자 중심 평가가 교육 현장에 시사하는 점에 대해 알아보고자 하였다. 분석한 결과 학습자 중심 평가는 학습 자의 학습 목표 도달에 유의미한 효과를 보였으며, 지능정보기술에 따른 디지털 환경 여건의 구축, 학습자의 평 가를 도울 수 있는 객관적 평가 시스템과 객관적 평가 모형이 고안되어질 때 인공지능 교육에서의 학습자 중심 평가가 원활하게 이루어질 것이라고 기대한다.</t>
   </si>
 </sst>
 </file>
@@ -13430,7 +13687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13446,6 +13703,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -13761,11 +14024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1126"/>
+  <dimension ref="A1:H1136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1127" sqref="D1127"/>
+      <pane ySplit="1" topLeftCell="A1113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1121" sqref="E1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -40501,6 +40764,206 @@
         <v>3134</v>
       </c>
     </row>
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1127" s="2">
+        <v>1126</v>
+      </c>
+      <c r="B1127" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1127" s="7" t="s">
+        <v>4327</v>
+      </c>
+      <c r="F1127" s="6" t="s">
+        <v>4328</v>
+      </c>
+      <c r="G1127" s="2" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1128" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B1128" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1128" s="8" t="s">
+        <v>4330</v>
+      </c>
+      <c r="F1128" s="5" t="s">
+        <v>4331</v>
+      </c>
+      <c r="G1128" s="2" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1129" s="2">
+        <v>1128</v>
+      </c>
+      <c r="B1129" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1129" s="5" t="s">
+        <v>4333</v>
+      </c>
+      <c r="F1129" s="5" t="s">
+        <v>4334</v>
+      </c>
+      <c r="G1129" s="2" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1130" s="2">
+        <v>1129</v>
+      </c>
+      <c r="B1130" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1130" s="5" t="s">
+        <v>4336</v>
+      </c>
+      <c r="F1130" s="5" t="s">
+        <v>4337</v>
+      </c>
+      <c r="G1130" s="2" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1131" s="2">
+        <v>1130</v>
+      </c>
+      <c r="B1131" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1131" s="2" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F1131" s="5" t="s">
+        <v>4340</v>
+      </c>
+      <c r="G1131" s="2" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1132" s="2">
+        <v>1131</v>
+      </c>
+      <c r="B1132" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1132" s="2" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F1132" s="5" t="s">
+        <v>4343</v>
+      </c>
+      <c r="G1132" s="2" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1133" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B1133" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1133" s="5" t="s">
+        <v>4345</v>
+      </c>
+      <c r="F1133" s="5" t="s">
+        <v>4346</v>
+      </c>
+      <c r="G1133" s="2" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1134" s="2">
+        <v>1133</v>
+      </c>
+      <c r="B1134" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1134" s="5" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F1134" s="5" t="s">
+        <v>4349</v>
+      </c>
+      <c r="G1134" s="2" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1135" s="2">
+        <v>1134</v>
+      </c>
+      <c r="B1135" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1135" s="5" t="s">
+        <v>4351</v>
+      </c>
+      <c r="F1135" s="5" t="s">
+        <v>4352</v>
+      </c>
+      <c r="G1135" s="2" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1136" s="2">
+        <v>1135</v>
+      </c>
+      <c r="B1136" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E1136" s="2" t="s">
+        <v>4354</v>
+      </c>
+      <c r="F1136" s="5" t="s">
+        <v>4355</v>
+      </c>
+      <c r="G1136" s="5" t="s">
+        <v>4356</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datamining/kor_abs_full.xlsx
+++ b/datamining/kor_abs_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Documents\GitHub\yooniverse\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8587C852-6BF7-4BC5-95C5-B7656DEAA016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B321143B-F6B5-4999-8360-C874A48E3E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="4357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="4400">
   <si>
     <t>NO</t>
   </si>
@@ -13593,6 +13593,177 @@
   </si>
   <si>
     <t>4차 산업혁명과 코로나-19를 대비하면서 우리 교육은 소프트웨어 교육을 넘어 소프트웨어 기술을 접목한 AI 교육의 시대로 새로운 배움의 장을 넓혀가고 있다. 본 연구에서는 소프트웨어 교육에서의 학습자 중심 평가 사 례를 분석하여 그 효과성을 통해 인공지능 교육의 평가 방향을 고찰해 보려 한다. 컴퓨터 교과를 포함한 비컴퓨터 교과에 학습자 중심 평가를 적용한 사례를 통해 학습자의 학습에 미치는 효과와 학습자 중심 평가의 환경 여건 및 평가 모형 등을 모색하고, 소프트웨어 교육에 학습자 중심 평가 모형을 적용한 사례를 통해 인공지능 교육에서 학습자 중심 평가가 교육 현장에 시사하는 점에 대해 알아보고자 하였다. 분석한 결과 학습자 중심 평가는 학습 자의 학습 목표 도달에 유의미한 효과를 보였으며, 지능정보기술에 따른 디지털 환경 여건의 구축, 학습자의 평 가를 도울 수 있는 객관적 평가 시스템과 객관적 평가 모형이 고안되어질 때 인공지능 교육에서의 학습자 중심 평가가 원활하게 이루어질 것이라고 기대한다.</t>
+  </si>
+  <si>
+    <t>24(6)</t>
+  </si>
+  <si>
+    <t>온라인 학습 환경에서의 블록형 교육용 프로그래밍 도구 학습에 대한 학생 인식 분석</t>
+  </si>
+  <si>
+    <t>온라인 학습, 원격 수업, 엔트리, 실과교육, SW교육</t>
+  </si>
+  <si>
+    <t>코로나 19로 인하여 대부분 학교에서 온라인 학습을 실시하고 있다. 본 연구에서는 초등학교 6학년 학생을 대상으로 총 12차시의 블록형 교육용 프로그래밍 도구 수업을 온라인 학습 형태로 실시한 후 엔트리 학습에 대한 학생의 학습 경험에 대한 인식을 양적, 질적으로 분석하였다. 분석한 결과 학습자는 엔트리 프로그램 사용과 학습 내용의 난이도에 대해 쉽게 인식하고 있는 것으로 나타났으며, 학습 만족도는 높게 나타났다. 학생들은 어려움을 겪을 경우 사이트 자체에서 제공하는 힌트 기능에서 가장 많은 도움을 받은 것으로 나타났고, 엔트리를 학습할 때 선생님의 필요성에 대해 낮게 인식한 것으로 나타났다. 질적 분석 결과 학습자는 쉽고 간편한 조작을 통해 신기함과 재미를 크게 느낀 것으로 나타났다. 한편, 학습 내용과 힌트 등이 이해되지 않아 어려움을 겪었으며, 힌트 내용이 부족하다고 느낀 것으로 나타났다. 학생들은 자신이 원하는 대로 프로그램을 만들고 조작하면서 성취감을 느낀 것으로 나타났다.</t>
+  </si>
+  <si>
+    <t>스크래치 전자 블록을 활용한 프로그래밍 교육</t>
+  </si>
+  <si>
+    <t>스크래치 전자 블록, 프로그래밍 교육, 프로그래밍 흥미도</t>
+  </si>
+  <si>
+    <t>스크래치는 교육용 프로그래밍 도구로 초등학교 소프트웨어교육에서 많이 활용되고 있으며 스크래치를 활용한 수업이 학생들의 컴퓨팅 사고력, 문제 해결력 등에 도움이 된다는 연구 결과가 많다. 그러나 스크래치 사용자의 연령 통계 자료를 분석해본 결과 초등학교 저학년 학생들의 스크래치 활용도가 낮았으며 블록 프로그래밍 경험이 있는 고학년 학생들도 프로그래밍의 기본 원리인 순차, 반복, 선택의 개념을 이해하는 것에 어려움이 있었다. 따라서 본 연구에서는 손으로 만지면서 프로그래밍을 학습할 수 있는 스크래치 전자 블록과 전자 블록 활용 프로그래밍 교육 커리큘럼을 개발하였으며 초등학교 2학년과 6학년 학생들을 대상으로 수업을 진행하였다. 수업 전·후 프로그래밍에 대한 흥미도 검사를 진행한 결과 2학년 학생들의 흥미도는 3.28에서 3.58로 향상되었으며 6학년 학생들의 흥미도는 3.41에서 4.09로 증가하였다. 프로그래밍 기본 원리 이해 평가 결과 2학년 학생들 중 84%의 학생들이 주어진 과제 9개 중 7개 이상을 해결하였으며 6학년 학생들 중 62%이상의 학생들의 주어진 과제 9개 중 7개 이상을 해결하였다.</t>
+  </si>
+  <si>
+    <t>디지털 학습자료에 대한 교육신경학적 이해와 교육적 시사점</t>
+  </si>
+  <si>
+    <t>디지털 학습자료, 뇌기반 교육, 교육신경학, 다중감각신경, 거울신경계, 감정</t>
+  </si>
+  <si>
+    <t>이 연구는 뇌과학과 교육을 접목하는 교육신경학의 관점에 기초한 연구이다. 이 관점에 기초하여 디지털 학습자료 활용의 뇌과학적 근거를 확인함과 아울러 교육적 시사점을 도출하는 것을 연구의 목적으로 하였다. 이 연구에서 얻어진 결과를 결론으로 제시하면, 다음과 같다. 첫째, 디지털 학습자료를 통한 다양한 감각 자극은 다중감각신경, 상구 심층부 등을 거치며 협동적 정보처리를 가능하게 한다. 둘째, 디지털 학습자료로 인한 간접경험은 거울신경계를 거쳐 학습 내용을 생생하게 이해하도록 도와준다. 셋째, 디지털 학습자료들이 일으킨 긍정적인 감정은 도파민, 망상활성체계, 전두 선조체, 대뇌 피질 등의 기능을 활성화시켜 준다. 이 연구의 결과를 통해 제시되는 교육적 시사점은 다음과 같다. 첫째, 교사는 디지털 학습자료를 선정할 때 표현 양식, 학습 내용, 수업의 흐름 및 역기능 측면까지 고려해야 한다. 둘째, 수업 장면에 따라 다양한 디지털 학습자료를 호기심과 즐거움의 유발, 흥미와 노력의 유지, 학습한 내용에 대한 복습의 목적으로 사용하는 것은 수업 효과를 위해 바람직하다.</t>
+  </si>
+  <si>
+    <t>앱인벤터를 활용한 PBL 기반 데이터 사이언스 교육 수업이 초등학생의 컴퓨팅 사고력과 창의성 향상에 미치는 효과</t>
+  </si>
+  <si>
+    <t>PBL, 앱인벤터, 데이터 사이언스, 컴퓨팅 사고력, 창의성</t>
+  </si>
+  <si>
+    <t>본 연구는 앱인벤터를 활용한 PBL 기반 데이터 사이언스 교육 수업이 초등학생의 컴퓨팅 사고력과 창의성에 미치는 영향을 알아보기 위한 연구이다. Rossett의 요구분석 모형에 의한 사전 요구분석 결과를 바탕으로 ISD모형인 ADDIE 모형의 절차에 따라 PBL 기반의 데이터 사이언스 교육 수업을 설계하여 초등학생을 대상으로 42차시의 수업을 실시하였다. 대응표본 t검정 결과, 컴퓨팅 사고력은 컴퓨팅 사고력은 사후 검사에서 통계적으로 유의미하게 향상되었음이 입증되었다. 또한, 대응표본 t검정, Wilcoxon 부호 순위 검정 결과 창의성의 하위 요소인 ‘독창성’, ‘정교성’, ‘성급한 종결에 대한 저항’과 ‘창의성 평균’, ‘창의성 지수’에서 통계적으로 유의미하게 향상된 것으로 나타났다. 따라서, 앱인벤터를 활용한 PBL 기반 데이터 사이언스 교육 수업이 초등학생의 컴퓨팅 사고력과 창의성 향상에 효과가 있음을 확인할 수 있었다.</t>
+  </si>
+  <si>
+    <t>수업 실습 중심 코딩 강사 양성 과정이 예비 코딩 강사의 창의성 향상에 미치는 효과</t>
+  </si>
+  <si>
+    <t>마이크로비트, 앱인벤터, 스크래치, 창의성</t>
+  </si>
+  <si>
+    <r>
+      <t>본 연구는 14일간 총 73차시의 강의 및 실습을 통해 예비 코딩 강사들이 직접 초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중학생용 강의 교재를 개발하고 실제 수업을 진행한 코딩 강사 양성 과정에 대해 효과를 검증하였다. 코딩 강사 양성 과정은 25명의 예비 코딩 강사들을 대상으로 ‘○○창조경제혁신센터’에서 주관하고 ‘○○대학교’에서 실시하였고, 수업에 참여한 초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중학생은 각각 15명씩 희망 학생을 공개 모집하였다. 강의 교재 개발은 컴퓨터교육 전공 현직 초등교사 20명을 대상으로 실시한 사전 요구분석 결과를 바탕으로, ADDIE 모형의 절차에 따라 개발하도록 하였다. 수업 실습 중심 코딩 강사 양성 과정을 운영한 결과, 예비 코딩 강사의 창의성이 향상된 것으로 나타났다.</t>
+    </r>
+  </si>
+  <si>
+    <t>인지 모델링기반 인공지능 교육 프로그램을 적용한 초등학생의 인공지능 이미지 변화 분석</t>
+  </si>
+  <si>
+    <t>인공지능, 인공지능교육, 협력필터링알고리즘, 인지모델링, 소프트웨어교육</t>
+  </si>
+  <si>
+    <t>본 연구는 초등학생들의 인공지능에 대한 이미지를 긍정적으로 향상시키고자 하는 인지 모델링기반 인공지능 알고리즘 교육 프로그램의 개발에 관한 것이다. 먼저 인공지능 알고리즘 중 협력필터링의 개념을 분석하고 이를 인지모델링 방법을 활용하여 교육 프로그램을 개발하였다. 이후 전문가 타당도 검사를 통해 인지 모델링기반의 콘텐츠 개발 방법과 개발된 프로그램에 대한 적절성이 CVR .80 이상으로 타당함을 확인하였다. 개발 프로그램은 초등학교 6학년 학생들에게 수업으로 적용하였고 형용사 단어 23쌍을 이용한 의미분별법을 이용하여 사전사후에 인공지능에 대한 학생들의 이미지 인식의 변화를 살펴보았다. 학생들의 인공지능에 대한 이미지는 총 23개 단어 쌍 중 12개에서 유의미한 긍정적 변화를 확인할 수 있었다.</t>
+  </si>
+  <si>
+    <t>고등학생 대상 메이커 교육이 소프트웨어 교육에 대한 태도, 창의적 문제해결력, 컴퓨팅 사고에 미치는 영향</t>
+  </si>
+  <si>
+    <t>메이커 교육, 인공지능, 소프트웨어에 대한 태도, 창의적 문제해결, 컴퓨팅 사고</t>
+  </si>
+  <si>
+    <t>본 연구에서는 지역 고등학생들을 대상으로 아두이노를 기반으로 하는 인공지능 메이커 교육을 실시하고 소프트웨어 교육에 대한 태도, 창의적 문제해결력, 컴퓨팅 사고에 미치는 영향을 관찰하였다. 이를 위해 mBlock과 아두이노를 기반으로 인공지능 로봇을 만들 수 있는 교육을 설계하여 학교 외부의 메이커 스페이스에서 교육을 실시하였다. 교육에 참여한 20명의 학생 중 19명의 데이터를 분석하였고, 대응표본 t-검정 결과 모든 부분에 있어 향상하였음을 확인할 수 있었다. 또한 학생들의 학업성취도 및 만족도에 대한 예측변인을 확인하기 위해 다중회귀분석을 실시하였다. 그 결과 소프트웨어 교육에 대한 태도가 유의한 예측변인으로 확인되었다. 본 연구를 통해 메이커 교육이 소프트웨어 교육에 대한 태도, 창의적 문제해결력, 컴퓨팅 사고와 긍정적인 영향을 미친다는 사실을 확인 할 수 있었다. 이러한 결과를 바탕으로 연구의 의의와 시사점을 도출하였고, 마지막으로 연구의 제한점과 추후 연구를 제안하였다.</t>
+  </si>
+  <si>
+    <t>온라인 프로그래밍 수업에서 자기조절능력과 학습참여, 교수실재감에 대한 학습몰입의 매개 효과</t>
+  </si>
+  <si>
+    <t>온라인 프로그래밍 수업, 학습참여, 교수실재감, 자기조절능력, 학습몰입</t>
+  </si>
+  <si>
+    <t>최근 전세계가 언택트 환경에 놓임에 따라 학생들의 프로그래밍 수업도 온라인으로 이루어지게 되었고, 온라인 프로그래밍 수업을 성공으로 이끌 수 있는 영향요인들에 대한 관심이 커지고 있다. 이에 본 연구에서는 특성화 고등학교 학생들을 대상으로 웹기반 시뮬레이션 툴을 활용하여 온라인 프로그래밍 수업을 진행하였다. 그리고 온라인 프로그래밍 수업에서 학생들의 학습참여와 교수실재감에 영향을 주는 변인으로 자기조절능력과 학습몰입을 상정하고 예측력을 분석하였다. 또한 학습참여, 교수실재감과 학습자의 자기조절능력 사이에서 학습몰입의 매개효과를 분석하였다. 연구 결과 온라인 프로그래밍 수업에서 자기조절능력과 학습몰입이 학습참여와 교수실재감을 예측하는 것으로 나타났고, 학습몰입은 자기조절능력과 학습참여, 교수실재감 사이에서 매개역할을 하는 것으로 나타났다. 본 연구는 온라인 프로그래밍 수업에서 학습참여와 교수실재감을 높이기 위해 자기조절능력과 학습몰입이 고려되어야 함을 제안하고, 이를 위한 실천적 시사점을 제공하였다는 데 의의가 있다.</t>
+  </si>
+  <si>
+    <t>스크래치 활용 데이터 시각화 교육이 초등학교 예비교사의 창의성에 미치는 영향</t>
+  </si>
+  <si>
+    <t>데이터 시각화, 창의성, 스크래치, 예비교사</t>
+  </si>
+  <si>
+    <t>본 연구에서는 데이터 시각화 교육에 초점을 맞춘 스크래치를 초등학교 예비교사 26명에게 적용하여 창의성 향상에 미치는 효과를 분석해 보았다. 현직 초등교사 60명을 대상으로 실시한 요구분석 결과를 바탕으로, 데이터 시각화의 절차에 따른 스크래치를 활용한 프로그램을 개발하였다. 개발한 교육 프로그램을 초등학교 예비교사 26명에게 총 4개월 동안 42시간의 수업을 진행하였다. 창의성 증진을 살펴보기 위해 창의성 검사를 실시하여 사전·사후 비교 검사를 통해 적용한 프로그램의 효과를 분석하였다. 분석 결과 초등학교 예비 교사를 대상으로 한 데이터 시각화 교육 중심 스크래치를 활용한 소프트웨어 교육은 초등학교 예비교사들의 창의성 하위요소 중 유창성, 정교성, 창의성 평균, 창의성 지수에 유의미한 효과가 있는 것으로 확인되었다.</t>
+  </si>
+  <si>
+    <t>2015 개정 실과 교과서 소프트웨어 교육 단원 탐구성 비교 분석</t>
+  </si>
+  <si>
+    <t>2015 개정교육과정, 실과 교과서, 소프트웨어 교육, 교과서 분석, Romey 분석법, 탐구성</t>
+  </si>
+  <si>
+    <t>본 논문에서는 2015 개정 교육과정에 따라 개발된 6종의 실과 교과서 중 ‘소프트웨어 교육’ 단원의 탐구성을 분석하여 현장에서 이루어질 교과서 채택, 교육과정 연구, 차기 교과서 개발 시에 참고할 수 있는 시사점을 제공하였다. 선행 연구를 분석한 결과 초등학교 ‘소프트웨어 교육’ 단원의 경우, 중·고등학교 교과서 연구에서 활발하게 진행되는 탐구성 분석이 미비한 것으로 파악되었다. 따라서 4차산업 혁명시대를 살아갈 우리 아이들에게 탐구형 교과서가 필요하다는 판단하에 Romey 분석법을 활용하여 교과서 내용을 분석하였다. 교과서를 분석한 결과, 모든 분석요소에서 탐구적 성향을 갖춘 이상적인 교과서는 없었으며, 교과서별로 탐구적 성향이 높은 분석요소가 다르게 나타났다. 전체 교과서에서 탐구적 성향이 가장 낮은 분석요소는 본문이였으며, 가장 높은 분석요소는 활동이었다. 교과서간 평가지수의 편차가 가장 큰 분석요소는 자료와 평가인 것으로 나타났다.</t>
+  </si>
+  <si>
+    <t>대화형 이러닝 콘텐츠에 관한 사용자 경험(UX) 질적 평가</t>
+  </si>
+  <si>
+    <t>대화형 이러닝, 대리적 상호작용, 사용자 경험, 질적 평가, HCI</t>
+  </si>
+  <si>
+    <t>코로나 19라는 전세계적 위기를 맞이하여 이러닝은 ‘뉴노멀(new normal)’이라는 이름으로 새로운 표준과 일상이 되고 있다. 본 연구에서는 기존의 일방향적, 교수자 중심적 독백형 이러닝 콘텐츠 분석 평가하였다. 총 20명의 성인 학습자가 참여하였고, 1:1 인터뷰를 통한 사용자 경험 평가를 진행하였고, 질적 데이터 분석을 실시하였다. 사용자 경험 평가 결과, 대화형 이러닝은 다양한 의견에 공감할 수 있고 새로운 이러닝 형태로 신선하였다고 응답하였다. 독백형과 대화형 이러닝 콘텐츠에 관한 개인적 선호에 관해 55%의 학습자가 대화형을 선호한다고 답하였고, 실제 경험을 공유하며 참신하다고 답하였다. 한편, 내용 이해 효과성측면에서 선호도는 60% 학습자가 독백형을 선택하였고, 충분한 개념 설명과 정확한 지식 전달을 지적하였다. 연구 결과를 토대로 대화형 이러닝 콘텐츠 설계와 개발을 위한 개선 방안을 제안하였다.</t>
+  </si>
+  <si>
+    <t>초등학생의 데이터 리터러시 함양을 위한 AI 데이터 과학 교육 프로그램 개발</t>
+  </si>
+  <si>
+    <t>데이터 리터러시, 데이터 과학, AI, 데이터 과학, 초등학생</t>
+  </si>
+  <si>
+    <t>인공지능으로 구현되는 지능과 데이터 및 네트워크 기술에 기반한 지능정보기술의 발전은 사회 전반에 혁신을 유발하고 광범위한 사회, 경제적 파급력을 보여주고 있다. 이에 국외는 물론 국내에서도 다가오는 미래사회를 이끌어갈 인재 양성을 위해 AI 교육을 서두르고 있는 실정이다. 데이터는 인공지능의 중요한 부분으로서 데이터를 수집, 처리, 분석하여 데이터 기반의 의사결정을 할 수 있는 데이터 리터러시는 AI 소양과 더불어 함께 신장시켜야 할 중요한 역량으로 볼 수 있다. 따라서 본 연구에서는 초등학생의 데이터 리터러시를 키워줄 수 있는 AI 데이터과학 교육 프로그램을 개발하여 이를 실험반에 적용, 사전-사후 대응표본 t-test를 통해 그 효과성을 검증하였다. 그 결과 데이터 리터러시의 네 가지 세부 역량인 데이터 이해, 수집, 분석, 표현에서 모두 통계적으로 유의미하게 향상된 결과를 나타내어 AI 데이터과학 교육 프로그램이 학생들의 데이터 리터러시 향상에 효과적임을 알 수 있었다.</t>
+  </si>
+  <si>
+    <t>초등 예비 교사들을 위한 소프트웨어 교육에 대한 온라인 교육 효과 분석</t>
+  </si>
+  <si>
+    <t>소프트웨어 교육, 예비 교사, 온라인 교육, 교수 학습 자료, 평가 자료</t>
+  </si>
+  <si>
+    <t>20년 전 21세기 지식정보 사회부터 온라인 교육은 강조되어 오고 있었고, 실제로 선진국에서는 온라인 대학이나 대학의 온라인 강좌가 활성화되었다. 그러나 지금까지도 교육대학에서는 온라인 강의가 활성화되지 않고 보조 교육 자료로 이용되고 있다. 2020년 2월부터 코로나바이러스라는 외부 요인으로 어쩔 수 없이 온라인 교육을 실시하였다. 본 연구에서 2019년도 예비 교사들을 대상으로 오프라인 강의와 똑같은 내용으로 온라인 강의를 구성하여 2020년 1학기에 실시하고 분석한 결과는 다음과 같다. 성취기준에 대한 이해도 측면, 교수학습자료 개발 측면, 평가 자료개발 및 평가방법 측면, 학생들에게 소프트웨어 교육을 할 수 있는 능력 측면에서 온라인 교육이 효과가 있다고 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>초등 실과 교과서 내 소프트웨어교육 영역에 나타난 컴퓨팅 사고력 요소 분석</t>
+  </si>
+  <si>
+    <t>소프트웨어교육, 컴퓨팅 사고력, 교과서 분석, 추상화, 자동화</t>
+  </si>
+  <si>
+    <t>본 연구에서는 초등 실과 교과서의 소프트웨어교육 영역에 나타난 컴퓨팅 사고력의 요소의 내용, 수준 등을 분석하고 교과서 학습활동별 컴퓨팅 비율을 분석하였다. 컴퓨팅 사고력 요소는 교육부에서 제시한 컴퓨팅 사고력의 구성 요소와 정의를 바탕으로 구성하였고, 6개 출판사에서 출판된 실과 교과서의 소프트웨어 교육 학습 내용을 분석하였다. 교과서별 컴퓨팅 사고력 요소와 컴퓨팅 수준을 분석한 결과 교과서별로 컴퓨팅 사고력의 하위 요소 포함 여부의 차이가 나타나며, 컴퓨팅과 연결된 추상화 활동을 제시하는 교과서의 비율이 비교적 낮게 나타났다. 추후 교육과정 개편 또는 교과서 개정시 컴퓨팅 사고력 요소가 균형있게 포함되도록 보완하고, 문제 발견과 이해부터 자동화까지 컴퓨팅 사고의 일련의 과정들이 이어질 수 있도록 차시를 편성할 필요가 있으며, 일상생활의 요소를 사용하되 컴퓨팅이 포함된 추상화 활동을 내포할 필요가 있다.</t>
   </si>
 </sst>
 </file>
@@ -14024,11 +14195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1136"/>
+  <dimension ref="A1:H1150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1121" sqref="E1121"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1152" sqref="E1152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -40964,6 +41135,286 @@
         <v>4356</v>
       </c>
     </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1137" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B1137" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1137" s="2" t="s">
+        <v>4358</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>4359</v>
+      </c>
+      <c r="G1137" s="2" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1138" s="2">
+        <v>1137</v>
+      </c>
+      <c r="B1138" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>4361</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>4362</v>
+      </c>
+      <c r="G1138" s="2" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1139" s="2">
+        <v>1138</v>
+      </c>
+      <c r="B1139" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>4364</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>4365</v>
+      </c>
+      <c r="G1139" s="2" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1140" s="2">
+        <v>1139</v>
+      </c>
+      <c r="B1140" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1140" s="2" t="s">
+        <v>4367</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>4368</v>
+      </c>
+      <c r="G1140" s="2" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1141" s="2">
+        <v>1140</v>
+      </c>
+      <c r="B1141" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1141" s="2" t="s">
+        <v>4370</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>4371</v>
+      </c>
+      <c r="G1141" s="2" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1142" s="2">
+        <v>1141</v>
+      </c>
+      <c r="B1142" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1142" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1142" s="2" t="s">
+        <v>4373</v>
+      </c>
+      <c r="F1142" s="5" t="s">
+        <v>4374</v>
+      </c>
+      <c r="G1142" s="2" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1143" s="2">
+        <v>1142</v>
+      </c>
+      <c r="B1143" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1143" s="2" t="s">
+        <v>4376</v>
+      </c>
+      <c r="F1143" s="5" t="s">
+        <v>4377</v>
+      </c>
+      <c r="G1143" s="2" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1144" s="2">
+        <v>1143</v>
+      </c>
+      <c r="B1144" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1144" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1144" s="2" t="s">
+        <v>4379</v>
+      </c>
+      <c r="F1144" s="5" t="s">
+        <v>4380</v>
+      </c>
+      <c r="G1144" s="2" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1145" s="2">
+        <v>1144</v>
+      </c>
+      <c r="B1145" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1145" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1145" s="2" t="s">
+        <v>4382</v>
+      </c>
+      <c r="F1145" s="5" t="s">
+        <v>4383</v>
+      </c>
+      <c r="G1145" s="2" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1146" s="2">
+        <v>1145</v>
+      </c>
+      <c r="B1146" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1146" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1146" s="2" t="s">
+        <v>4385</v>
+      </c>
+      <c r="F1146" s="5" t="s">
+        <v>4386</v>
+      </c>
+      <c r="G1146" s="2" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1147" s="2">
+        <v>1144</v>
+      </c>
+      <c r="B1147" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1147" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1147" s="5" t="s">
+        <v>4388</v>
+      </c>
+      <c r="F1147" s="5" t="s">
+        <v>4389</v>
+      </c>
+      <c r="G1147" s="2" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1148" s="2">
+        <v>1145</v>
+      </c>
+      <c r="B1148" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1148" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1148" s="2" t="s">
+        <v>4391</v>
+      </c>
+      <c r="F1148" s="5" t="s">
+        <v>4392</v>
+      </c>
+      <c r="G1148" s="2" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1149" s="2">
+        <v>1146</v>
+      </c>
+      <c r="B1149" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1149" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1149" s="2" t="s">
+        <v>4394</v>
+      </c>
+      <c r="F1149" s="5" t="s">
+        <v>4395</v>
+      </c>
+      <c r="G1149" s="2" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1150" s="2">
+        <v>1147</v>
+      </c>
+      <c r="B1150" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1150" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1150" s="2" t="s">
+        <v>4397</v>
+      </c>
+      <c r="F1150" s="5" t="s">
+        <v>4398</v>
+      </c>
+      <c r="G1150" s="2" t="s">
+        <v>4399</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datamining/kor_abs_full.xlsx
+++ b/datamining/kor_abs_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Documents\GitHub\yooniverse\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B321143B-F6B5-4999-8360-C874A48E3E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89BEABB-CC53-40D1-B08D-999E40740B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14197,9 +14197,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1152" sqref="E1152"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1151" sqref="D1151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -41337,7 +41337,7 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1147" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B1147" s="4">
         <v>2020</v>
@@ -41357,7 +41357,7 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1148" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B1148" s="4">
         <v>2020</v>
@@ -41377,7 +41377,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B1149" s="4">
         <v>2020</v>
@@ -41397,7 +41397,7 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1150" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B1150" s="4">
         <v>2020</v>
